--- a/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- War Games (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- War Games (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Detective Comics</t>
   </si>
   <si>
@@ -88,6 +88,111 @@
     <t>Batman</t>
   </si>
   <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -100,94 +205,7 @@
     <t>Batman: Legends of the Dark Knight</t>
   </si>
   <si>
-    <t>790</t>
-  </si>
-  <si>
-    <t>791</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>634</t>
+    <t>DC Comics</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -214,13 +232,13 @@
     <t>https://comicvine.gamespot.com/issue/4000-113381/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-110083/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-110085/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-110087/</t>
+    <t>https://comicvine.gamespot.com/robin-126-a-life-more-ordinary/4000-110083/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/robin-127-the-girl-wonder/4000-110085/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/robin-128-fired/4000-110087/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/batman-the-12-cent-adventure-1-war-games-prelude-n/4000-158701/</t>
@@ -238,7 +256,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-100898/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-92340/</t>
+    <t>https://comicvine.gamespot.com/robin-129-war-games-act-1-part-5-alamo-high/4000-92340/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-100877/</t>
@@ -262,7 +280,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-100899/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-92341/</t>
+    <t>https://comicvine.gamespot.com/robin-130-war-games-act-2-part-5-the-only-light-in/4000-92341/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-100878/</t>
@@ -283,7 +301,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-96770/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-92342/</t>
+    <t>https://comicvine.gamespot.com/robin-131-war-games-act-3-part-4-too-many-ghosts/4000-92342/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-100900/</t>
@@ -302,9 +320,6 @@
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-100889/</t>
-  </si>
-  <si>
-    <t>DC Comics</t>
   </si>
 </sst>
 </file>
@@ -737,17 +752,17 @@
       <c r="C2" s="2">
         <v>1937</v>
       </c>
-      <c r="D2" s="2">
-        <v>790</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3">
         <v>38047</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>18058</v>
@@ -762,19 +777,19 @@
         <v>1937</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="4">
+        <v>64</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="4">
         <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -787,17 +802,17 @@
       <c r="C3" s="2">
         <v>1937</v>
       </c>
-      <c r="D3" s="2">
-        <v>791</v>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3">
         <v>38078</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
         <v>18058</v>
@@ -812,19 +827,19 @@
         <v>1937</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="4">
+        <v>64</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="4">
         <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -837,17 +852,17 @@
       <c r="C4" s="2">
         <v>1937</v>
       </c>
-      <c r="D4" s="2">
-        <v>792</v>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3">
         <v>38108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2">
         <v>18058</v>
@@ -862,19 +877,19 @@
         <v>1937</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="4">
+        <v>64</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="4">
         <v>31</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -887,17 +902,17 @@
       <c r="C5" s="2">
         <v>1937</v>
       </c>
-      <c r="D5" s="2">
-        <v>793</v>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3">
         <v>38139</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2">
         <v>18058</v>
@@ -912,19 +927,19 @@
         <v>1937</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="4">
+        <v>64</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="4">
         <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -937,17 +952,17 @@
       <c r="C6" s="2">
         <v>1937</v>
       </c>
-      <c r="D6" s="2">
-        <v>794</v>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3">
         <v>38169</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2">
         <v>18058</v>
@@ -962,19 +977,19 @@
         <v>1937</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="4">
+        <v>64</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="4">
         <v>31</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -987,17 +1002,17 @@
       <c r="C7" s="2">
         <v>1937</v>
       </c>
-      <c r="D7" s="2">
-        <v>795</v>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F7" s="3">
         <v>38200</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2">
         <v>18058</v>
@@ -1012,19 +1027,19 @@
         <v>1937</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="4">
         <v>31</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1037,17 +1052,17 @@
       <c r="C8" s="2">
         <v>1937</v>
       </c>
-      <c r="D8" s="2">
-        <v>796</v>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F8" s="3">
         <v>38231</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2">
         <v>18058</v>
@@ -1062,19 +1077,19 @@
         <v>1937</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="4">
-        <v>62</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="4">
+        <v>-62</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1087,17 +1102,17 @@
       <c r="C9" s="2">
         <v>1993</v>
       </c>
-      <c r="D9" s="2">
-        <v>126</v>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F9" s="3">
         <v>38169</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2">
         <v>4975</v>
@@ -1112,19 +1127,19 @@
         <v>1993</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="4">
+        <v>64</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="4">
         <v>31</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1137,17 +1152,17 @@
       <c r="C10" s="2">
         <v>1993</v>
       </c>
-      <c r="D10" s="2">
-        <v>127</v>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3">
         <v>38200</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H10" s="2">
         <v>4975</v>
@@ -1162,19 +1177,19 @@
         <v>1993</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="4">
+        <v>64</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="4">
         <v>31</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1187,17 +1202,17 @@
       <c r="C11" s="2">
         <v>1993</v>
       </c>
-      <c r="D11" s="2">
-        <v>128</v>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3">
         <v>38231</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2">
         <v>4975</v>
@@ -1212,19 +1227,19 @@
         <v>1993</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="4">
+        <v>64</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="4">
         <v>30</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1237,17 +1252,17 @@
       <c r="C12" s="2">
         <v>2004</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3">
         <v>38261</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2">
         <v>26546</v>
@@ -1256,25 +1271,25 @@
         <v>158701</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="K12" s="2">
         <v>2004</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="4">
+        <v>64</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="4">
         <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1287,17 +1302,17 @@
       <c r="C13" s="2">
         <v>1937</v>
       </c>
-      <c r="D13" s="2">
-        <v>797</v>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F13" s="3">
         <v>38261</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2">
         <v>18058</v>
@@ -1312,19 +1327,19 @@
         <v>1937</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="4">
+        <v>64</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="4">
         <v>0</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1337,17 +1352,17 @@
       <c r="C14" s="2">
         <v>1992</v>
       </c>
-      <c r="D14" s="2">
-        <v>182</v>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3">
         <v>38261</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H14" s="2">
         <v>4720</v>
@@ -1356,25 +1371,25 @@
         <v>100906</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2">
         <v>1992</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="4">
+        <v>64</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="4">
         <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1387,17 +1402,17 @@
       <c r="C15" s="2">
         <v>1996</v>
       </c>
-      <c r="D15" s="2">
-        <v>96</v>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F15" s="3">
         <v>38261</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H15" s="2">
         <v>5755</v>
@@ -1412,19 +1427,19 @@
         <v>1996</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15" s="4">
+        <v>64</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="4">
         <v>0</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1437,17 +1452,17 @@
       <c r="C16" s="2">
         <v>2000</v>
       </c>
-      <c r="D16" s="2">
-        <v>56</v>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F16" s="3">
         <v>38261</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H16" s="2">
         <v>7207</v>
@@ -1462,19 +1477,19 @@
         <v>2000</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="4">
+        <v>64</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="4">
         <v>0</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1487,17 +1502,17 @@
       <c r="C17" s="2">
         <v>1993</v>
       </c>
-      <c r="D17" s="2">
-        <v>129</v>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3">
         <v>38261</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H17" s="2">
         <v>4975</v>
@@ -1512,19 +1527,19 @@
         <v>1993</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="4">
+        <v>64</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="4">
         <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1537,17 +1552,17 @@
       <c r="C18" s="2">
         <v>2000</v>
       </c>
-      <c r="D18" s="2">
-        <v>55</v>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F18" s="3">
         <v>38261</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H18" s="2">
         <v>7205</v>
@@ -1562,19 +1577,19 @@
         <v>2000</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="4">
+        <v>64</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="4">
         <v>0</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1587,17 +1602,17 @@
       <c r="C19" s="2">
         <v>2002</v>
       </c>
-      <c r="D19" s="2">
-        <v>34</v>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F19" s="3">
         <v>38261</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H19" s="2">
         <v>7328</v>
@@ -1612,19 +1627,19 @@
         <v>2002</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="4">
+        <v>64</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="4">
         <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1637,17 +1652,17 @@
       <c r="C20" s="2">
         <v>1940</v>
       </c>
-      <c r="D20" s="2">
-        <v>631</v>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3">
         <v>38261</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H20" s="2">
         <v>796</v>
@@ -1662,19 +1677,19 @@
         <v>1940</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="4">
+        <v>64</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="4">
         <v>31</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1687,17 +1702,17 @@
       <c r="C21" s="2">
         <v>1937</v>
       </c>
-      <c r="D21" s="2">
-        <v>798</v>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3">
         <v>38292</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H21" s="2">
         <v>18058</v>
@@ -1712,19 +1727,19 @@
         <v>1937</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="4">
+        <v>64</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="4">
         <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1737,17 +1752,17 @@
       <c r="C22" s="2">
         <v>1992</v>
       </c>
-      <c r="D22" s="2">
-        <v>183</v>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F22" s="3">
         <v>38292</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H22" s="2">
         <v>4720</v>
@@ -1756,25 +1771,25 @@
         <v>100907</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="K22" s="2">
         <v>1992</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="4">
+        <v>64</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="4">
         <v>0</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1787,17 +1802,17 @@
       <c r="C23" s="2">
         <v>1996</v>
       </c>
-      <c r="D23" s="2">
-        <v>97</v>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3">
         <v>38292</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H23" s="2">
         <v>5755</v>
@@ -1812,19 +1827,19 @@
         <v>1996</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" s="4">
+        <v>64</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="4">
         <v>0</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1837,17 +1852,17 @@
       <c r="C24" s="2">
         <v>2000</v>
       </c>
-      <c r="D24" s="2">
-        <v>57</v>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3">
         <v>38292</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H24" s="2">
         <v>7207</v>
@@ -1862,19 +1877,19 @@
         <v>2000</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="4">
+        <v>64</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="4">
         <v>0</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1887,17 +1902,17 @@
       <c r="C25" s="2">
         <v>1993</v>
       </c>
-      <c r="D25" s="2">
-        <v>130</v>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F25" s="3">
         <v>38292</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H25" s="2">
         <v>4975</v>
@@ -1912,19 +1927,19 @@
         <v>1993</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O25" s="4">
+        <v>64</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="4">
         <v>0</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1937,17 +1952,17 @@
       <c r="C26" s="2">
         <v>2000</v>
       </c>
-      <c r="D26" s="2">
-        <v>56</v>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F26" s="3">
         <v>38292</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H26" s="2">
         <v>7205</v>
@@ -1962,19 +1977,19 @@
         <v>2000</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O26" s="4">
+        <v>64</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="4">
         <v>0</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1987,17 +2002,17 @@
       <c r="C27" s="2">
         <v>2002</v>
       </c>
-      <c r="D27" s="2">
-        <v>35</v>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F27" s="3">
         <v>38292</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H27" s="2">
         <v>7328</v>
@@ -2015,16 +2030,16 @@
         <v>48</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" s="4">
+        <v>64</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27" s="4">
         <v>0</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2037,17 +2052,17 @@
       <c r="C28" s="2">
         <v>1940</v>
       </c>
-      <c r="D28" s="2">
-        <v>632</v>
+      <c r="D28" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F28" s="3">
         <v>38292</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H28" s="2">
         <v>796</v>
@@ -2065,16 +2080,16 @@
         <v>49</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O28" s="4">
+        <v>64</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" s="4">
         <v>30</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2087,17 +2102,17 @@
       <c r="C29" s="2">
         <v>1937</v>
       </c>
-      <c r="D29" s="2">
-        <v>799</v>
+      <c r="D29" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3">
         <v>38322</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H29" s="2">
         <v>18058</v>
@@ -2115,16 +2130,16 @@
         <v>50</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O29" s="4">
+        <v>64</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="4">
         <v>0</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2137,17 +2152,17 @@
       <c r="C30" s="2">
         <v>1992</v>
       </c>
-      <c r="D30" s="2">
-        <v>184</v>
+      <c r="D30" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F30" s="3">
         <v>38322</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H30" s="2">
         <v>4720</v>
@@ -2156,7 +2171,7 @@
         <v>100908</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="K30" s="2">
         <v>1992</v>
@@ -2165,16 +2180,16 @@
         <v>51</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O30" s="4">
+        <v>64</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" s="4">
         <v>0</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2187,17 +2202,17 @@
       <c r="C31" s="2">
         <v>1996</v>
       </c>
-      <c r="D31" s="2">
-        <v>98</v>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F31" s="3">
         <v>38322</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H31" s="2">
         <v>5755</v>
@@ -2215,16 +2230,16 @@
         <v>52</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O31" s="4">
+        <v>64</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" s="4">
         <v>0</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2237,17 +2252,17 @@
       <c r="C32" s="2">
         <v>1993</v>
       </c>
-      <c r="D32" s="2">
-        <v>131</v>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F32" s="3">
         <v>38322</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H32" s="2">
         <v>4975</v>
@@ -2262,19 +2277,19 @@
         <v>1993</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O32" s="4">
+        <v>64</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P32" s="4">
         <v>0</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2287,17 +2302,17 @@
       <c r="C33" s="2">
         <v>2000</v>
       </c>
-      <c r="D33" s="2">
-        <v>58</v>
+      <c r="D33" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F33" s="3">
         <v>38322</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H33" s="2">
         <v>7207</v>
@@ -2312,19 +2327,19 @@
         <v>2000</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O33" s="4">
+        <v>64</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" s="4">
         <v>0</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2337,17 +2352,17 @@
       <c r="C34" s="2">
         <v>2000</v>
       </c>
-      <c r="D34" s="2">
-        <v>57</v>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F34" s="3">
         <v>38322</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H34" s="2">
         <v>7205</v>
@@ -2362,19 +2377,19 @@
         <v>2000</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O34" s="4">
+        <v>64</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" s="4">
         <v>0</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2387,17 +2402,17 @@
       <c r="C35" s="2">
         <v>2002</v>
       </c>
-      <c r="D35" s="2">
-        <v>36</v>
+      <c r="D35" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F35" s="3">
         <v>38322</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H35" s="2">
         <v>7328</v>
@@ -2412,19 +2427,19 @@
         <v>2002</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O35" s="4">
+        <v>64</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="4">
         <v>0</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2437,17 +2452,17 @@
       <c r="C36" s="2">
         <v>1940</v>
       </c>
-      <c r="D36" s="2">
-        <v>633</v>
+      <c r="D36" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F36" s="3">
         <v>38322</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H36" s="2">
         <v>796</v>
@@ -2462,19 +2477,19 @@
         <v>1940</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O36" s="4">
+        <v>64</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P36" s="4">
         <v>31</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2487,17 +2502,17 @@
       <c r="C37" s="2">
         <v>1937</v>
       </c>
-      <c r="D37" s="2">
-        <v>800</v>
+      <c r="D37" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F37" s="3">
         <v>38353</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H37" s="2">
         <v>18058</v>
@@ -2512,19 +2527,19 @@
         <v>1937</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O37" s="4">
+        <v>64</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" s="4">
         <v>0</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2537,17 +2552,17 @@
       <c r="C38" s="2">
         <v>1940</v>
       </c>
-      <c r="D38" s="2">
-        <v>634</v>
+      <c r="D38" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F38" s="3">
         <v>38353</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H38" s="2">
         <v>796</v>
@@ -2562,60 +2577,60 @@
         <v>1940</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O38" s="4">
+        <v>64</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" s="4">
         <v>0</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
-    <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
-    <hyperlink ref="N13" r:id="rId12"/>
-    <hyperlink ref="N14" r:id="rId13"/>
-    <hyperlink ref="N15" r:id="rId14"/>
-    <hyperlink ref="N16" r:id="rId15"/>
-    <hyperlink ref="N17" r:id="rId16"/>
-    <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="N19" r:id="rId18"/>
-    <hyperlink ref="N20" r:id="rId19"/>
-    <hyperlink ref="N21" r:id="rId20"/>
-    <hyperlink ref="N22" r:id="rId21"/>
-    <hyperlink ref="N23" r:id="rId22"/>
-    <hyperlink ref="N24" r:id="rId23"/>
-    <hyperlink ref="N25" r:id="rId24"/>
-    <hyperlink ref="N26" r:id="rId25"/>
-    <hyperlink ref="N27" r:id="rId26"/>
-    <hyperlink ref="N28" r:id="rId27"/>
-    <hyperlink ref="N29" r:id="rId28"/>
-    <hyperlink ref="N30" r:id="rId29"/>
-    <hyperlink ref="N31" r:id="rId30"/>
-    <hyperlink ref="N32" r:id="rId31"/>
-    <hyperlink ref="N33" r:id="rId32"/>
-    <hyperlink ref="N34" r:id="rId33"/>
-    <hyperlink ref="N35" r:id="rId34"/>
-    <hyperlink ref="N36" r:id="rId35"/>
-    <hyperlink ref="N37" r:id="rId36"/>
-    <hyperlink ref="N38" r:id="rId37"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
+    <hyperlink ref="O21" r:id="rId20"/>
+    <hyperlink ref="O22" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="O24" r:id="rId23"/>
+    <hyperlink ref="O25" r:id="rId24"/>
+    <hyperlink ref="O26" r:id="rId25"/>
+    <hyperlink ref="O27" r:id="rId26"/>
+    <hyperlink ref="O28" r:id="rId27"/>
+    <hyperlink ref="O29" r:id="rId28"/>
+    <hyperlink ref="O30" r:id="rId29"/>
+    <hyperlink ref="O31" r:id="rId30"/>
+    <hyperlink ref="O32" r:id="rId31"/>
+    <hyperlink ref="O33" r:id="rId32"/>
+    <hyperlink ref="O34" r:id="rId33"/>
+    <hyperlink ref="O35" r:id="rId34"/>
+    <hyperlink ref="O36" r:id="rId35"/>
+    <hyperlink ref="O37" r:id="rId36"/>
+    <hyperlink ref="O38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
